--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,18 +572,90 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-03-01 00:38:02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>camilo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sencilla</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Salchipapas</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-03-01 00:38:02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>camilo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ranchera</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Salchipapas</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
